--- a/lab1/1 Таблицы в отчет.xlsx
+++ b/lab1/1 Таблицы в отчет.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\Электротехника 2024\220131_ЛР-1_Линейные_ЭЦ_пост_тока\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DFDA5-07F2-402C-B1A9-332928D8D39A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="20955" windowHeight="9975"/>
+    <workbookView xWindow="17505" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
   <si>
     <t>Установить</t>
   </si>
@@ -855,12 +868,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1143,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1224,6 +1237,40 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,14 +1280,23 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1251,24 +1307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,21 +1318,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,6 +1340,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AA317B-3E6B-43F1-BC2A-EAB957227D0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1362,7 +1445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1394,9 +1477,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1428,6 +1529,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1603,44 +1722,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="22" width="7.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.25">
+    <row r="1" spans="1:24" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75">
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1">
-      <c r="C4" s="38" t="s">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="1:24" ht="16.5">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1666,7 +1787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1692,61 +1813,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.0220000000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.016</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5.1239999999999997</v>
+      </c>
+      <c r="I7" s="4">
+        <v>133.22399999999999</v>
+      </c>
+      <c r="J7" s="4">
+        <v>682.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1">
-      <c r="C10" s="47" t="s">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="49"/>
-    </row>
-    <row r="11" spans="1:24" ht="16.5">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="58"/>
+    </row>
+    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1802,7 +1923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1858,7 +1979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
@@ -1874,8 +1995,8 @@
       <c r="G13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>2</v>
+      <c r="H13" s="4">
+        <v>5.1239999999999997</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>2</v>
@@ -1892,8 +2013,8 @@
       <c r="M13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>2</v>
+      <c r="N13" s="4">
+        <v>133.22399999999999</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>2</v>
@@ -1910,11 +2031,11 @@
       <c r="S13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="21" customHeight="1">
+      <c r="T13" s="4">
+        <v>682.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
@@ -1924,34 +2045,34 @@
       <c r="T15" s="3"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="51" t="s">
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="32" t="s">
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
       <c r="M16" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="30.75" customHeight="1">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
       <c r="B17" s="20" t="s">
         <v>33</v>
       </c>
@@ -1982,18 +2103,18 @@
       <c r="K17" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="50" t="s">
+      <c r="M17" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-    </row>
-    <row r="18" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A18" s="43"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+    </row>
+    <row r="18" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49"/>
       <c r="B18" s="20" t="s">
         <v>34</v>
       </c>
@@ -2025,7 +2146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>1</v>
       </c>
@@ -2033,37 +2154,40 @@
         <v>0</v>
       </c>
       <c r="C19" s="17">
-        <v>3.27047</v>
+        <v>7.1539999999999999</v>
       </c>
       <c r="D19" s="17">
-        <v>20.02599</v>
-      </c>
-      <c r="E19" s="17">
-        <v>65.494399515300003</v>
-      </c>
-      <c r="F19" s="54">
-        <v>3.2639999999999998</v>
-      </c>
-      <c r="G19" s="55">
-        <v>19.585000000000001</v>
-      </c>
-      <c r="H19" s="55">
-        <v>63.930999999999997</v>
+        <v>86.802000000000007</v>
+      </c>
+      <c r="E19" s="32">
+        <f t="shared" ref="E19:E29" si="0">C19*D19</f>
+        <v>620.98150800000008</v>
+      </c>
+      <c r="F19" s="33">
+        <v>7.1139999999999999</v>
+      </c>
+      <c r="G19" s="34">
+        <v>85.367999999999995</v>
+      </c>
+      <c r="H19" s="36">
+        <v>607.31399999999996</v>
       </c>
       <c r="I19" s="23">
         <f>ABS((C19-F19)/C19)*100</f>
-        <v>0.19783089280746186</v>
+        <v>0.55912776069331893</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" ref="J19:K29" si="0">ABS((D19-G19)/D19)*100</f>
-        <v>2.2020883861422051</v>
+        <f t="shared" ref="J19:K29" si="1">ABS((D19-G19)/D19)*100</f>
+        <v>1.6520356673809493</v>
       </c>
       <c r="K19" s="23">
-        <f t="shared" si="0"/>
-        <v>2.3870735923531652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>2.200952495996082</v>
+      </c>
+      <c r="Z19" s="35"/>
+      <c r="AC19" s="35"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>2</v>
       </c>
@@ -2071,37 +2195,40 @@
         <v>40</v>
       </c>
       <c r="C20" s="17">
-        <v>3.64575</v>
+        <v>8.2530000000000001</v>
       </c>
       <c r="D20" s="17">
-        <v>22.179729999999999</v>
-      </c>
-      <c r="E20" s="17">
-        <v>80.861750647500003</v>
-      </c>
-      <c r="F20" s="55">
-        <v>3.5720000000000001</v>
-      </c>
-      <c r="G20" s="55">
-        <v>21.434999999999999</v>
-      </c>
-      <c r="H20" s="55">
-        <v>76.573999999999998</v>
+        <v>98.613</v>
+      </c>
+      <c r="E20" s="32">
+        <f t="shared" si="0"/>
+        <v>813.85308899999995</v>
+      </c>
+      <c r="F20" s="34">
+        <v>8.2629999999999999</v>
+      </c>
+      <c r="G20" s="34">
+        <v>99.153999999999996</v>
+      </c>
+      <c r="H20" s="36">
+        <v>819.29</v>
       </c>
       <c r="I20" s="23">
-        <f t="shared" ref="I20:I29" si="1">ABS((C20-F20)/C20)*100</f>
-        <v>2.0229033806487</v>
+        <f t="shared" ref="I20:I29" si="2">ABS((C20-F20)/C20)*100</f>
+        <v>0.12116806009935521</v>
       </c>
       <c r="J20" s="23">
-        <f t="shared" si="0"/>
-        <v>3.3577054364503112</v>
+        <f t="shared" si="1"/>
+        <v>0.54860920973907779</v>
       </c>
       <c r="K20" s="23">
-        <f t="shared" si="0"/>
-        <v>5.3025696490193033</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>0.66804575340255412</v>
+      </c>
+      <c r="Z20" s="35"/>
+      <c r="AC20" s="35"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>3</v>
       </c>
@@ -2109,37 +2236,40 @@
         <v>80</v>
       </c>
       <c r="C21" s="17">
-        <v>3.9326099999999999</v>
+        <v>9.4740000000000002</v>
       </c>
       <c r="D21" s="17">
-        <v>24.006620000000002</v>
-      </c>
-      <c r="E21" s="17">
-        <v>94.408673878200005</v>
-      </c>
-      <c r="F21" s="55">
-        <v>3.8809999999999998</v>
-      </c>
-      <c r="G21" s="55">
-        <v>23.283999999999999</v>
-      </c>
-      <c r="H21" s="55">
-        <v>90.355999999999995</v>
+        <v>110.95099999999999</v>
+      </c>
+      <c r="E21" s="32">
+        <f t="shared" si="0"/>
+        <v>1051.149774</v>
+      </c>
+      <c r="F21" s="34">
+        <v>9.4120000000000008</v>
+      </c>
+      <c r="G21" s="34">
+        <v>112.93899999999999</v>
+      </c>
+      <c r="H21" s="36">
+        <v>1062.9390000000001</v>
       </c>
       <c r="I21" s="23">
+        <f t="shared" si="2"/>
+        <v>0.6544226303567594</v>
+      </c>
+      <c r="J21" s="23">
         <f t="shared" si="1"/>
-        <v>1.3123599848446745</v>
-      </c>
-      <c r="J21" s="23">
-        <f t="shared" si="0"/>
-        <v>3.0100863845056183</v>
+        <v>1.7917819578011911</v>
       </c>
       <c r="K21" s="23">
-        <f t="shared" si="0"/>
-        <v>4.2926923043411351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>1.1215552998825169</v>
+      </c>
+      <c r="Z21" s="35"/>
+      <c r="AC21" s="35"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>4</v>
       </c>
@@ -2147,40 +2277,43 @@
         <v>120</v>
       </c>
       <c r="C22" s="17">
-        <v>4.0560299999999998</v>
+        <v>10.432</v>
       </c>
       <c r="D22" s="17">
-        <v>24.23499</v>
-      </c>
-      <c r="E22" s="17">
-        <v>98.297846489699992</v>
-      </c>
-      <c r="F22" s="55">
-        <v>4.1890000000000001</v>
-      </c>
-      <c r="G22" s="55">
-        <v>25.132999999999999</v>
-      </c>
-      <c r="H22" s="55">
-        <v>105.279</v>
+        <v>126.706</v>
+      </c>
+      <c r="E22" s="32">
+        <f t="shared" si="0"/>
+        <v>1321.796992</v>
+      </c>
+      <c r="F22" s="34">
+        <v>10.56</v>
+      </c>
+      <c r="G22" s="34">
+        <v>126.72499999999999</v>
+      </c>
+      <c r="H22" s="36">
+        <v>1338.26</v>
       </c>
       <c r="I22" s="23">
+        <f t="shared" si="2"/>
+        <v>1.226993865030676</v>
+      </c>
+      <c r="J22" s="23">
         <f t="shared" si="1"/>
-        <v>3.2783288092050666</v>
-      </c>
-      <c r="J22" s="23">
-        <f t="shared" si="0"/>
-        <v>3.705427565680858</v>
+        <v>1.4995343551206134E-2</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="0"/>
-        <v>7.1020411530902816</v>
+        <f t="shared" si="1"/>
+        <v>1.2455020021712944</v>
       </c>
       <c r="M22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="16.5">
+      <c r="Z22" s="35"/>
+      <c r="AC22" s="35"/>
+    </row>
+    <row r="23" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>5</v>
       </c>
@@ -2188,34 +2321,35 @@
         <v>160</v>
       </c>
       <c r="C23" s="17">
-        <v>4.40097</v>
+        <v>11.77</v>
       </c>
       <c r="D23" s="17">
-        <v>26.130030000000001</v>
-      </c>
-      <c r="E23" s="17">
-        <v>114.9974781291</v>
-      </c>
-      <c r="F23" s="55">
-        <v>4.4969999999999999</v>
-      </c>
-      <c r="G23" s="55">
-        <v>26.981999999999999</v>
-      </c>
-      <c r="H23" s="55">
-        <v>121.34099999999999</v>
+        <v>141.93700000000001</v>
+      </c>
+      <c r="E23" s="32">
+        <f t="shared" si="0"/>
+        <v>1670.5984900000001</v>
+      </c>
+      <c r="F23" s="34">
+        <v>11.709</v>
+      </c>
+      <c r="G23" s="34">
+        <v>140.51</v>
+      </c>
+      <c r="H23" s="36">
+        <v>1645.2539999999999</v>
       </c>
       <c r="I23" s="23">
+        <f t="shared" si="2"/>
+        <v>0.51826677994902248</v>
+      </c>
+      <c r="J23" s="23">
         <f t="shared" si="1"/>
-        <v>2.1820189640011143</v>
-      </c>
-      <c r="J23" s="23">
-        <f t="shared" si="0"/>
-        <v>3.2605014230752807</v>
+        <v>1.0053756243967542</v>
       </c>
       <c r="K23" s="23">
-        <f t="shared" si="0"/>
-        <v>5.5162269417582728</v>
+        <f t="shared" si="1"/>
+        <v>1.5170904410430885</v>
       </c>
       <c r="M23" s="14" t="s">
         <v>44</v>
@@ -2223,43 +2357,46 @@
       <c r="N23" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="18.75">
+      <c r="Z23" s="35"/>
+      <c r="AC23" s="35"/>
+    </row>
+    <row r="24" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>6</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="37">
         <v>200</v>
       </c>
       <c r="C24" s="17">
-        <v>4.7633299999999998</v>
+        <v>12.989000000000001</v>
       </c>
       <c r="D24" s="17">
-        <v>28.854959999999998</v>
-      </c>
-      <c r="E24" s="17">
-        <v>137.44569661679998</v>
-      </c>
-      <c r="F24" s="55">
-        <v>4.8049999999999997</v>
-      </c>
-      <c r="G24" s="55">
-        <v>28.832000000000001</v>
-      </c>
-      <c r="H24" s="55">
-        <v>138.54400000000001</v>
+        <v>152.91800000000001</v>
+      </c>
+      <c r="E24" s="32">
+        <f t="shared" si="0"/>
+        <v>1986.2519020000002</v>
+      </c>
+      <c r="F24" s="34">
+        <v>12.858000000000001</v>
+      </c>
+      <c r="G24" s="34">
+        <v>154.29499999999999</v>
+      </c>
+      <c r="H24" s="36">
+        <v>1983.921</v>
       </c>
       <c r="I24" s="23">
+        <f t="shared" si="2"/>
+        <v>1.0085456925090477</v>
+      </c>
+      <c r="J24" s="23">
         <f t="shared" si="1"/>
-        <v>0.87480816991474186</v>
-      </c>
-      <c r="J24" s="23">
-        <f t="shared" si="0"/>
-        <v>7.9570375422449546E-2</v>
+        <v>0.90048261159574494</v>
       </c>
       <c r="K24" s="23">
-        <f t="shared" si="0"/>
-        <v>0.79908168115449574</v>
+        <f t="shared" si="1"/>
+        <v>0.11735178189901871</v>
       </c>
       <c r="M24" s="15" t="s">
         <v>45</v>
@@ -2267,8 +2404,10 @@
       <c r="N24" s="13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="Z24" s="35"/>
+      <c r="AC24" s="35"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>7</v>
       </c>
@@ -2276,37 +2415,40 @@
         <v>240</v>
       </c>
       <c r="C25" s="17">
-        <v>5.2130900000000002</v>
+        <v>14.185</v>
       </c>
       <c r="D25" s="17">
-        <v>31.633369999999999</v>
-      </c>
-      <c r="E25" s="17">
-        <v>164.9076048133</v>
-      </c>
-      <c r="F25" s="55">
-        <v>5.1130000000000004</v>
-      </c>
-      <c r="G25" s="55">
-        <v>30.681000000000001</v>
-      </c>
-      <c r="H25" s="55">
-        <v>156.886</v>
+        <v>168.48599999999999</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" si="0"/>
+        <v>2389.9739100000002</v>
+      </c>
+      <c r="F25" s="34">
+        <v>14.007</v>
+      </c>
+      <c r="G25" s="34">
+        <v>168.08099999999999</v>
+      </c>
+      <c r="H25" s="36">
+        <v>2354.2600000000002</v>
       </c>
       <c r="I25" s="23">
+        <f t="shared" si="2"/>
+        <v>1.2548466690165727</v>
+      </c>
+      <c r="J25" s="23">
         <f t="shared" si="1"/>
-        <v>1.9199745256651963</v>
-      </c>
-      <c r="J25" s="23">
-        <f t="shared" si="0"/>
-        <v>3.0106498295945023</v>
+        <v>0.24037605498379755</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" si="0"/>
-        <v>4.8643025422518598</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>1.4943221702365754</v>
+      </c>
+      <c r="Z25" s="35"/>
+      <c r="AC25" s="35"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>8</v>
       </c>
@@ -2314,38 +2456,41 @@
         <v>280</v>
       </c>
       <c r="C26" s="17">
-        <v>5.43933</v>
+        <v>15.101000000000001</v>
       </c>
       <c r="D26" s="17">
-        <v>32.20308</v>
-      </c>
-      <c r="E26" s="17">
-        <v>175.1631791364</v>
-      </c>
-      <c r="F26" s="55">
-        <v>5.4219999999999997</v>
-      </c>
-      <c r="G26" s="55">
-        <v>32.53</v>
-      </c>
-      <c r="H26" s="55">
-        <v>176.36799999999999</v>
+        <v>181.315</v>
+      </c>
+      <c r="E26" s="32">
+        <f t="shared" si="0"/>
+        <v>2738.0378150000001</v>
+      </c>
+      <c r="F26" s="34">
+        <v>15.156000000000001</v>
+      </c>
+      <c r="G26" s="34">
+        <v>181.86600000000001</v>
+      </c>
+      <c r="H26" s="36">
+        <v>2756.2719999999999</v>
       </c>
       <c r="I26" s="23">
+        <f t="shared" si="2"/>
+        <v>0.36421429044433951</v>
+      </c>
+      <c r="J26" s="23">
         <f t="shared" si="1"/>
-        <v>0.3186054164759316</v>
-      </c>
-      <c r="J26" s="23">
-        <f t="shared" si="0"/>
-        <v>1.0151823987022397</v>
+        <v>0.30389101839341265</v>
       </c>
       <c r="K26" s="23">
-        <f t="shared" si="0"/>
-        <v>0.68782769845812985</v>
+        <f t="shared" si="1"/>
+        <v>0.66595811424174201</v>
       </c>
       <c r="V26" s="18"/>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="Z26" s="35"/>
+      <c r="AC26" s="35"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>9</v>
       </c>
@@ -2353,37 +2498,40 @@
         <v>320</v>
       </c>
       <c r="C27" s="17">
-        <v>5.64879</v>
+        <v>16.373999999999999</v>
       </c>
       <c r="D27" s="17">
-        <v>34.829560000000001</v>
-      </c>
-      <c r="E27" s="17">
-        <v>196.74487023239999</v>
-      </c>
-      <c r="F27" s="55">
-        <v>5.73</v>
-      </c>
-      <c r="G27" s="55">
-        <v>34.378999999999998</v>
-      </c>
-      <c r="H27" s="55">
-        <v>196.99</v>
+        <v>193.28100000000001</v>
+      </c>
+      <c r="E27" s="32">
+        <f t="shared" si="0"/>
+        <v>3164.7830939999999</v>
+      </c>
+      <c r="F27" s="34">
+        <v>16.303999999999998</v>
+      </c>
+      <c r="G27" s="34">
+        <v>195.65100000000001</v>
+      </c>
+      <c r="H27" s="36">
+        <v>3189.9569999999999</v>
       </c>
       <c r="I27" s="23">
+        <f t="shared" si="2"/>
+        <v>0.42750702332967072</v>
+      </c>
+      <c r="J27" s="23">
         <f t="shared" si="1"/>
-        <v>1.4376530194962187</v>
-      </c>
-      <c r="J27" s="23">
-        <f t="shared" si="0"/>
-        <v>1.2936138153913024</v>
+        <v>1.2261939869930332</v>
       </c>
       <c r="K27" s="23">
-        <f t="shared" si="0"/>
-        <v>0.12459271101221904</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>0.79543858938472922</v>
+      </c>
+      <c r="Z27" s="35"/>
+      <c r="AC27" s="35"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>10</v>
       </c>
@@ -2391,37 +2539,40 @@
         <v>360</v>
       </c>
       <c r="C28" s="17">
-        <v>6.0750500000000001</v>
+        <v>17.574999999999999</v>
       </c>
       <c r="D28" s="17">
-        <v>35.709099999999999</v>
-      </c>
-      <c r="E28" s="17">
-        <v>216.93456795500001</v>
-      </c>
-      <c r="F28" s="55">
-        <v>6.0380000000000003</v>
-      </c>
-      <c r="G28" s="55">
-        <v>36.228999999999999</v>
-      </c>
-      <c r="H28" s="55">
-        <v>218.75200000000001</v>
+        <v>207.14699999999999</v>
+      </c>
+      <c r="E28" s="32">
+        <f t="shared" si="0"/>
+        <v>3640.6085249999996</v>
+      </c>
+      <c r="F28" s="34">
+        <v>17.452999999999999</v>
+      </c>
+      <c r="G28" s="34">
+        <v>209.43700000000001</v>
+      </c>
+      <c r="H28" s="36">
+        <v>3655.3150000000001</v>
       </c>
       <c r="I28" s="23">
+        <f t="shared" si="2"/>
+        <v>0.69416785206258835</v>
+      </c>
+      <c r="J28" s="23">
         <f t="shared" si="1"/>
-        <v>0.60987152369115982</v>
-      </c>
-      <c r="J28" s="23">
-        <f t="shared" si="0"/>
-        <v>1.4559314012394595</v>
+        <v>1.1054951314766908</v>
       </c>
       <c r="K28" s="23">
-        <f t="shared" si="0"/>
-        <v>0.83777890362637109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>0.40395650614481854</v>
+      </c>
+      <c r="Z28" s="35"/>
+      <c r="AC28" s="35"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>11</v>
       </c>
@@ -2429,85 +2580,88 @@
         <v>400</v>
       </c>
       <c r="C29" s="17">
-        <v>6.3574900000000003</v>
+        <v>19.111000000000001</v>
       </c>
       <c r="D29" s="17">
-        <v>38.638390000000001</v>
-      </c>
-      <c r="E29" s="17">
-        <v>245.64317804110001</v>
-      </c>
-      <c r="F29" s="55">
-        <v>6.3460000000000001</v>
-      </c>
-      <c r="G29" s="55">
-        <v>38.078000000000003</v>
-      </c>
-      <c r="H29" s="55">
-        <v>241.654</v>
+        <v>221.55799999999999</v>
+      </c>
+      <c r="E29" s="32">
+        <f t="shared" si="0"/>
+        <v>4234.1949379999996</v>
+      </c>
+      <c r="F29" s="34">
+        <v>18.602</v>
+      </c>
+      <c r="G29" s="34">
+        <v>223.22200000000001</v>
+      </c>
+      <c r="H29" s="36">
+        <v>4152.3459999999995</v>
       </c>
       <c r="I29" s="23">
+        <f t="shared" si="2"/>
+        <v>2.6633875778347567</v>
+      </c>
+      <c r="J29" s="23">
         <f t="shared" si="1"/>
-        <v>0.1807317038642644</v>
-      </c>
-      <c r="J29" s="23">
-        <f t="shared" si="0"/>
-        <v>1.4503451101352778</v>
+        <v>0.75104487312578005</v>
       </c>
       <c r="K29" s="23">
-        <f t="shared" si="0"/>
-        <v>1.6239726553417921</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1">
-      <c r="A30" s="35" t="s">
+        <f t="shared" si="1"/>
+        <v>1.9330460500399402</v>
+      </c>
+      <c r="Z29" s="35"/>
+      <c r="AC29" s="35"/>
+    </row>
+    <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="24">
         <f>MAX(I19:I29)</f>
-        <v>3.2783288092050666</v>
+        <v>2.6633875778347567</v>
       </c>
       <c r="J30" s="24">
-        <f t="shared" ref="J30:K30" si="2">MAX(J19:J29)</f>
-        <v>3.705427565680858</v>
+        <f t="shared" ref="J30:K30" si="3">MAX(J19:J29)</f>
+        <v>1.7917819578011911</v>
       </c>
       <c r="K30" s="24">
-        <f t="shared" si="2"/>
-        <v>7.1020411530902816</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1">
-      <c r="A31" s="35" t="s">
+        <f t="shared" si="3"/>
+        <v>2.200952495996082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="24">
         <f>AVERAGE(I19:I29)</f>
-        <v>1.3031896718740481</v>
+        <v>0.86296801830237346</v>
       </c>
       <c r="J31" s="24">
-        <f t="shared" ref="J31:K31" si="3">AVERAGE(J19:J29)</f>
-        <v>2.167372920576319</v>
+        <f t="shared" ref="J31:K31" si="4">AVERAGE(J19:J29)</f>
+        <v>0.86729831631251242</v>
       </c>
       <c r="K31" s="24">
-        <f t="shared" si="3"/>
-        <v>3.048923621127912</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="21" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>1.1057472004038509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>43</v>
       </c>
@@ -2517,31 +2671,31 @@
       <c r="T33" s="3"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A34" s="41" t="s">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="51" t="s">
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="32" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
-    </row>
-    <row r="35" spans="1:21" ht="30.75" customHeight="1">
-      <c r="A35" s="42"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+    </row>
+    <row r="35" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
       <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
@@ -2573,8 +2727,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A36" s="43"/>
+    <row r="36" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="49"/>
       <c r="B36" s="20" t="s">
         <v>36</v>
       </c>
@@ -2606,7 +2760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>1</v>
       </c>
@@ -2614,37 +2768,38 @@
         <v>0</v>
       </c>
       <c r="C37" s="17">
-        <v>6.375</v>
+        <v>18.585999999999999</v>
       </c>
       <c r="D37" s="17">
-        <v>38.668999999999997</v>
+        <v>227.761</v>
       </c>
       <c r="E37" s="17">
-        <v>246.511</v>
+        <f>C37*D37</f>
+        <v>4233.1659459999992</v>
       </c>
       <c r="F37" s="21">
-        <v>6.4846416382252503</v>
+        <v>18.911000000000001</v>
       </c>
       <c r="G37" s="22">
-        <v>38.907849829351498</v>
+        <v>226.93700000000001</v>
       </c>
       <c r="H37" s="22">
-        <v>252.30346305722799</v>
+        <v>4291.701</v>
       </c>
       <c r="I37" s="23">
         <f>ABS((C37-F37)/C37)*100</f>
-        <v>1.7198688349058873</v>
+        <v>1.7486279995695839</v>
       </c>
       <c r="J37" s="23">
-        <f t="shared" ref="J37:J47" si="4">ABS((D37-G37)/D37)*100</f>
-        <v>0.61767780224857471</v>
+        <f t="shared" ref="J37:J47" si="5">ABS((D37-G37)/D37)*100</f>
+        <v>0.36178274594859694</v>
       </c>
       <c r="K37" s="23">
-        <f t="shared" ref="K37:K47" si="5">ABS((E37-H37)/E37)*100</f>
-        <v>2.3497787349156796</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <f t="shared" ref="K37:K47" si="6">ABS((E37-H37)/E37)*100</f>
+        <v>1.3827724862832691</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>2</v>
       </c>
@@ -2652,75 +2807,77 @@
         <v>5</v>
       </c>
       <c r="C38" s="17">
-        <v>4.125</v>
+        <v>14.657999999999999</v>
       </c>
       <c r="D38" s="17">
-        <v>25.145</v>
-      </c>
-      <c r="E38" s="17">
-        <v>103.729</v>
+        <v>180.761</v>
+      </c>
+      <c r="E38" s="32">
+        <f t="shared" ref="E38:E47" si="7">C38*D38</f>
+        <v>2649.5947379999998</v>
       </c>
       <c r="F38" s="22">
-        <v>4.1888484169235101</v>
+        <v>14.942</v>
       </c>
       <c r="G38" s="22">
-        <v>25.133090501541002</v>
+        <v>179.30600000000001</v>
       </c>
       <c r="H38" s="22">
-        <v>105.278706359775</v>
+        <v>2679.2060000000001</v>
       </c>
       <c r="I38" s="23">
-        <f t="shared" ref="I38:I47" si="6">ABS((C38-F38)/C38)*100</f>
-        <v>1.5478404102669108</v>
+        <f t="shared" ref="I38:I47" si="8">ABS((C38-F38)/C38)*100</f>
+        <v>1.9375085277664121</v>
       </c>
       <c r="J38" s="23">
-        <f t="shared" si="4"/>
-        <v>4.7363286772709498E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.804930267037682</v>
       </c>
       <c r="K38" s="23">
-        <f t="shared" si="5"/>
-        <v>1.4939952759353714</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <f t="shared" si="6"/>
+        <v>1.1175770232074018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>3</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="37">
         <v>10</v>
       </c>
       <c r="C39" s="17">
-        <v>3.2669999999999999</v>
+        <v>12.887</v>
       </c>
       <c r="D39" s="17">
-        <v>19.164999999999999</v>
-      </c>
-      <c r="E39" s="17">
-        <v>62.613999999999997</v>
+        <v>154.51300000000001</v>
+      </c>
+      <c r="E39" s="32">
+        <f t="shared" si="7"/>
+        <v>1991.2090310000001</v>
       </c>
       <c r="F39" s="22">
-        <v>3.0663329161451802</v>
+        <v>12.858000000000001</v>
       </c>
       <c r="G39" s="22">
-        <v>18.397997496871099</v>
+        <v>154.29499999999999</v>
       </c>
       <c r="H39" s="22">
-        <v>56.414385315812503</v>
+        <v>1983.921</v>
       </c>
       <c r="I39" s="23">
+        <f t="shared" si="8"/>
+        <v>0.22503297897105545</v>
+      </c>
+      <c r="J39" s="23">
+        <f t="shared" si="5"/>
+        <v>0.14108845210436513</v>
+      </c>
+      <c r="K39" s="23">
         <f t="shared" si="6"/>
-        <v>6.1422431544174989</v>
-      </c>
-      <c r="J39" s="23">
-        <f t="shared" si="4"/>
-        <v>4.0021001989506919</v>
-      </c>
-      <c r="K39" s="23">
-        <f t="shared" si="5"/>
-        <v>9.9013234806712482</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>0.36601034278856914</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>4</v>
       </c>
@@ -2728,37 +2885,38 @@
         <v>15</v>
       </c>
       <c r="C40" s="17">
-        <v>2.4790000000000001</v>
+        <v>11.531000000000001</v>
       </c>
       <c r="D40" s="17">
-        <v>14.907999999999999</v>
-      </c>
-      <c r="E40" s="17">
-        <v>39.96</v>
+        <v>138.089</v>
+      </c>
+      <c r="E40" s="32">
+        <f t="shared" si="7"/>
+        <v>1592.304259</v>
       </c>
       <c r="F40" s="22">
-        <v>2.4007310184416002</v>
+        <v>11.574</v>
       </c>
       <c r="G40" s="22">
-        <v>14.4043861106496</v>
+        <v>138.88399999999999</v>
       </c>
       <c r="H40" s="22">
-        <v>34.581056537445797</v>
+        <v>1607.3910000000001</v>
       </c>
       <c r="I40" s="23">
+        <f t="shared" si="8"/>
+        <v>0.37290781371953224</v>
+      </c>
+      <c r="J40" s="23">
+        <f t="shared" si="5"/>
+        <v>0.57571566163849941</v>
+      </c>
+      <c r="K40" s="23">
         <f t="shared" si="6"/>
-        <v>3.1572804178459015</v>
-      </c>
-      <c r="J40" s="23">
-        <f t="shared" si="4"/>
-        <v>3.3781452196833857</v>
-      </c>
-      <c r="K40" s="23">
-        <f t="shared" si="5"/>
-        <v>13.460819475861371</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>0.94747853086035572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>5</v>
       </c>
@@ -2766,37 +2924,38 @@
         <v>20</v>
       </c>
       <c r="C41" s="17">
-        <v>1.9159999999999999</v>
+        <v>10.728999999999999</v>
       </c>
       <c r="D41" s="17">
-        <v>11.371</v>
-      </c>
-      <c r="E41" s="17">
-        <v>21.782</v>
+        <v>129.738</v>
+      </c>
+      <c r="E41" s="32">
+        <f t="shared" si="7"/>
+        <v>1391.9590019999998</v>
       </c>
       <c r="F41" s="22">
-        <v>1.96024295969078</v>
+        <v>10.702999999999999</v>
       </c>
       <c r="G41" s="22">
-        <v>11.761457758144701</v>
+        <v>128.435</v>
       </c>
       <c r="H41" s="22">
-        <v>23.0553147661035</v>
+        <v>1374.6220000000001</v>
       </c>
       <c r="I41" s="23">
+        <f t="shared" si="8"/>
+        <v>0.2423338614968758</v>
+      </c>
+      <c r="J41" s="23">
+        <f t="shared" si="5"/>
+        <v>1.0043318071806235</v>
+      </c>
+      <c r="K41" s="23">
         <f t="shared" si="6"/>
-        <v>2.3091315078695236</v>
-      </c>
-      <c r="J41" s="23">
-        <f t="shared" si="4"/>
-        <v>3.4338031672210043</v>
-      </c>
-      <c r="K41" s="23">
-        <f t="shared" si="5"/>
-        <v>5.8457201639128629</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>1.2455109651282501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>6</v>
       </c>
@@ -2804,37 +2963,38 @@
         <v>25</v>
       </c>
       <c r="C42" s="17">
-        <v>1.665</v>
+        <v>9.9410000000000007</v>
       </c>
       <c r="D42" s="17">
-        <v>9.8849999999999998</v>
-      </c>
-      <c r="E42" s="17">
-        <v>16.356000000000002</v>
+        <v>119.321</v>
+      </c>
+      <c r="E42" s="32">
+        <f t="shared" si="7"/>
+        <v>1186.170061</v>
       </c>
       <c r="F42" s="22">
-        <v>1.64718384697131</v>
+        <v>10.074</v>
       </c>
       <c r="G42" s="22">
-        <v>9.8831030818278496</v>
+        <v>120.884</v>
       </c>
       <c r="H42" s="22">
-        <v>16.279287754339201</v>
+        <v>1217.7370000000001</v>
       </c>
       <c r="I42" s="23">
+        <f t="shared" si="8"/>
+        <v>1.337893572075235</v>
+      </c>
+      <c r="J42" s="23">
+        <f t="shared" si="5"/>
+        <v>1.3099119182708847</v>
+      </c>
+      <c r="K42" s="23">
         <f t="shared" si="6"/>
-        <v>1.0700392209423422</v>
-      </c>
-      <c r="J42" s="23">
-        <f t="shared" si="4"/>
-        <v>1.9189865170968219E-2</v>
-      </c>
-      <c r="K42" s="23">
-        <f t="shared" si="5"/>
-        <v>0.46901593091709892</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>2.6612490095549668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>7</v>
       </c>
@@ -2842,37 +3002,38 @@
         <v>30</v>
       </c>
       <c r="C43" s="17">
-        <v>1.5109999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D43" s="17">
-        <v>8.9420000000000002</v>
-      </c>
-      <c r="E43" s="17">
-        <v>13.507999999999999</v>
+        <v>114.706</v>
+      </c>
+      <c r="E43" s="32">
+        <f t="shared" si="7"/>
+        <v>1112.6481999999999</v>
       </c>
       <c r="F43" s="22">
-        <v>1.4132453063750801</v>
+        <v>9.5980000000000008</v>
       </c>
       <c r="G43" s="22">
-        <v>8.4794718382504701</v>
+        <v>115.172</v>
       </c>
       <c r="H43" s="22">
-        <v>11.9835737759471</v>
+        <v>1105.377</v>
       </c>
       <c r="I43" s="23">
+        <f t="shared" si="8"/>
+        <v>1.0515463917525623</v>
+      </c>
+      <c r="J43" s="23">
+        <f t="shared" si="5"/>
+        <v>0.4062559935835911</v>
+      </c>
+      <c r="K43" s="23">
         <f t="shared" si="6"/>
-        <v>6.4695363087306319</v>
-      </c>
-      <c r="J43" s="23">
-        <f t="shared" si="4"/>
-        <v>5.1725359175747041</v>
-      </c>
-      <c r="K43" s="23">
-        <f t="shared" si="5"/>
-        <v>11.285358484253029</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>0.65350395569775865</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>8</v>
       </c>
@@ -2880,37 +3041,38 @@
         <v>35</v>
       </c>
       <c r="C44" s="17">
-        <v>1.167</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D44" s="17">
-        <v>7.22</v>
-      </c>
-      <c r="E44" s="17">
-        <v>8.423</v>
+        <v>111.741</v>
+      </c>
+      <c r="E44" s="32">
+        <f t="shared" si="7"/>
+        <v>1028.0172</v>
       </c>
       <c r="F44" s="22">
-        <v>1.23179778367982</v>
+        <v>9.2249999999999996</v>
       </c>
       <c r="G44" s="22">
-        <v>7.3907867020789402</v>
+        <v>110.7</v>
       </c>
       <c r="H44" s="22">
-        <v>9.1039546792711494</v>
+        <v>1021.2089999999999</v>
       </c>
       <c r="I44" s="23">
+        <f t="shared" si="8"/>
+        <v>0.27173913043478648</v>
+      </c>
+      <c r="J44" s="23">
+        <f t="shared" si="5"/>
+        <v>0.93161865385131404</v>
+      </c>
+      <c r="K44" s="23">
         <f t="shared" si="6"/>
-        <v>5.5525093127523499</v>
-      </c>
-      <c r="J44" s="23">
-        <f t="shared" si="4"/>
-        <v>2.3654667877969588</v>
-      </c>
-      <c r="K44" s="23">
-        <f t="shared" si="5"/>
-        <v>8.0844672832856386</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>0.66226518388992484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>9</v>
       </c>
@@ -2918,37 +3080,38 @@
         <v>40</v>
       </c>
       <c r="C45" s="17">
-        <v>1.1439999999999999</v>
+        <v>8.98</v>
       </c>
       <c r="D45" s="17">
-        <v>6.9980000000000002</v>
-      </c>
-      <c r="E45" s="17">
-        <v>8.0069999999999997</v>
+        <v>108.492</v>
+      </c>
+      <c r="E45" s="32">
+        <f t="shared" si="7"/>
+        <v>974.25816000000009</v>
       </c>
       <c r="F45" s="22">
-        <v>1.0869565217391299</v>
+        <v>8.9250000000000007</v>
       </c>
       <c r="G45" s="22">
-        <v>6.5217391304348</v>
+        <v>107.104</v>
       </c>
       <c r="H45" s="22">
-        <v>7.0888468809074103</v>
+        <v>955.94299999999998</v>
       </c>
       <c r="I45" s="23">
+        <f t="shared" si="8"/>
+        <v>0.61247216035634433</v>
+      </c>
+      <c r="J45" s="23">
+        <f t="shared" si="5"/>
+        <v>1.2793570032813526</v>
+      </c>
+      <c r="K45" s="23">
         <f t="shared" si="6"/>
-        <v>4.9863180297963261</v>
-      </c>
-      <c r="J45" s="23">
-        <f t="shared" si="4"/>
-        <v>6.8056711855558758</v>
-      </c>
-      <c r="K45" s="23">
-        <f t="shared" si="5"/>
-        <v>11.46688046824765</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>1.8799082986382281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>10</v>
       </c>
@@ -2956,37 +3119,38 @@
         <v>45</v>
       </c>
       <c r="C46" s="17">
-        <v>0.90500000000000003</v>
+        <v>8.69</v>
       </c>
       <c r="D46" s="17">
-        <v>5.54</v>
-      </c>
-      <c r="E46" s="17">
-        <v>5.016</v>
+        <v>104.84699999999999</v>
+      </c>
+      <c r="E46" s="32">
+        <f t="shared" si="7"/>
+        <v>911.12042999999994</v>
       </c>
       <c r="F46" s="22">
-        <v>0.96865883760939697</v>
+        <v>8.6790000000000003</v>
       </c>
       <c r="G46" s="22">
-        <v>5.8119530256563801</v>
+        <v>104.15</v>
       </c>
       <c r="H46" s="22">
-        <v>5.6297996620727204</v>
+        <v>903.93299999999999</v>
       </c>
       <c r="I46" s="23">
+        <f t="shared" si="8"/>
+        <v>0.12658227848100384</v>
+      </c>
+      <c r="J46" s="23">
+        <f t="shared" si="5"/>
+        <v>0.66477820061612503</v>
+      </c>
+      <c r="K46" s="23">
         <f t="shared" si="6"/>
-        <v>7.0341257026957953</v>
-      </c>
-      <c r="J46" s="23">
-        <f t="shared" si="4"/>
-        <v>4.9088993800790615</v>
-      </c>
-      <c r="K46" s="23">
-        <f t="shared" si="5"/>
-        <v>12.236835368275925</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>0.78885619983298483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>11</v>
       </c>
@@ -2994,90 +3158,91 @@
         <v>50</v>
       </c>
       <c r="C47" s="17">
-        <v>0.89</v>
+        <v>8.4160000000000004</v>
       </c>
       <c r="D47" s="17">
-        <v>5.2519999999999998</v>
-      </c>
-      <c r="E47" s="17">
-        <v>4.6719999999999997</v>
+        <v>100.98699999999999</v>
+      </c>
+      <c r="E47" s="32">
+        <f t="shared" si="7"/>
+        <v>849.90659200000005</v>
       </c>
       <c r="F47" s="22">
-        <v>0.87022063861860799</v>
+        <v>8.4730000000000008</v>
       </c>
       <c r="G47" s="22">
-        <v>5.2213238317116497</v>
+        <v>101.679</v>
       </c>
       <c r="H47" s="22">
-        <v>4.5437037592666698</v>
+        <v>861.55799999999999</v>
       </c>
       <c r="I47" s="23">
+        <f t="shared" si="8"/>
+        <v>0.6772813688212973</v>
+      </c>
+      <c r="J47" s="23">
+        <f t="shared" si="5"/>
+        <v>0.68523671363641581</v>
+      </c>
+      <c r="K47" s="23">
         <f t="shared" si="6"/>
-        <v>2.2224001552125872</v>
-      </c>
-      <c r="J47" s="23">
-        <f t="shared" si="4"/>
-        <v>0.58408545865099148</v>
-      </c>
-      <c r="K47" s="23">
-        <f t="shared" si="5"/>
-        <v>2.7460667965181913</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1">
-      <c r="A48" s="35" t="s">
+        <v>1.3709045334713612</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="24">
         <f>MAX(I37:I47)</f>
-        <v>7.0341257026957953</v>
+        <v>1.9375085277664121</v>
       </c>
       <c r="J48" s="24">
-        <f t="shared" ref="J48" si="7">MAX(J37:J47)</f>
-        <v>6.8056711855558758</v>
+        <f t="shared" ref="J48" si="9">MAX(J37:J47)</f>
+        <v>1.3099119182708847</v>
       </c>
       <c r="K48" s="24">
-        <f t="shared" ref="K48" si="8">MAX(K37:K47)</f>
-        <v>13.460819475861371</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1">
-      <c r="A49" s="35" t="s">
+        <f t="shared" ref="K48" si="10">MAX(K37:K47)</f>
+        <v>2.6612490095549668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="24">
         <f>AVERAGE(I37:I47)</f>
-        <v>3.8373902777668873</v>
+        <v>0.78217509849497169</v>
       </c>
       <c r="J49" s="24">
-        <f t="shared" ref="J49:K49" si="9">AVERAGE(J37:J47)</f>
-        <v>2.8486307517913576</v>
+        <f t="shared" ref="J49:K49" si="11">AVERAGE(J37:J47)</f>
+        <v>0.74227340155904098</v>
       </c>
       <c r="K49" s="24">
-        <f t="shared" si="9"/>
-        <v>7.2127510420721883</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15.75">
+        <f t="shared" si="11"/>
+        <v>1.1887305935775516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15.75">
+    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>1</v>
       </c>
@@ -3085,11 +3250,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75">
+    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
     </row>
-    <row r="56" spans="1:15" ht="15.75">
+    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>2</v>
       </c>
@@ -3097,7 +3262,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>40</v>
       </c>
@@ -3116,7 +3281,7 @@
       <c r="N58" s="12"/>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>41</v>
       </c>
@@ -3132,12 +3297,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H31"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="C16:E16"/>
@@ -3145,37 +3304,68 @@
     <mergeCell ref="M17:S17"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="C34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Equation.3" shapeId="1025" r:id="rId3"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lab1/1 Таблицы в отчет.xlsx
+++ b/lab1/1 Таблицы в отчет.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\Электротехника 2024\220131_ЛР-1_Линейные_ЭЦ_пост_тока\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\MUCTR\MUCTR-ElTech\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DFDA5-07F2-402C-B1A9-332928D8D39A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3353299-2DF6-4A98-AD06-36D969D46B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17505" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="7965" windowWidth="13575" windowHeight="7005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="99">
   <si>
     <t>Установить</t>
   </si>
@@ -863,6 +867,111 @@
       </rPr>
       <t>|</t>
     </r>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>наименования точек</t>
+  </si>
+  <si>
+    <t>Сопротивление</t>
+  </si>
+  <si>
+    <t>Потенциал</t>
+  </si>
+  <si>
+    <t>Ом</t>
+  </si>
+  <si>
+    <t>Табли</t>
+  </si>
+  <si>
+    <t>Таблица 1.3.1</t>
+  </si>
+  <si>
+    <t>Таблица 1.3.2</t>
+  </si>
+  <si>
+    <t>вольт</t>
+  </si>
+  <si>
+    <t>ом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6 = </t>
+  </si>
+  <si>
+    <t>ЭДС</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>1-ый закон Кирхгофа</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>2-ой закон Кирхгофа</t>
+  </si>
+  <si>
+    <t>I1-I2+0*I3-I4+0*I5+0*I6=0</t>
+  </si>
+  <si>
+    <t>Матрица коэффициентов А</t>
+  </si>
+  <si>
+    <t>I1*R1+0*I2+0*I3+I4*R4+I5*R5+0*I6=E1</t>
+  </si>
+  <si>
+    <t>0*I1+0*I2+I3*R3+0*I4+I5*R5+I6*R6=E3</t>
+  </si>
+  <si>
+    <t>0*I1+I2*R2+0*I3+I4*R4+0*I5+I6*R6=E2</t>
+  </si>
+  <si>
+    <t>0*I1+0*I2+0*I3+I4-I5-I6=0</t>
+  </si>
+  <si>
+    <t>0*I1-I2-I3+0*I4+0*I5+I6=0</t>
+  </si>
+  <si>
+    <t>Вектор B</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1253,6 +1362,63 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1262,63 +1428,46 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1340,6 +1489,1803 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Идеальные</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> ЭДС</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$Y$6:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$Z$6:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-60.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11E0-4443-BAC9-E07E094FBD41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="742171728"/>
+        <c:axId val="742169648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="742171728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742169648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="742169648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742171728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Реальные ЭДС</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$AE$6:$AE$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$AF$6:$AF$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-60.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-697D-4C23-BB3D-D7B01A90476B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="872155680"/>
+        <c:axId val="872153184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="872155680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872153184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="872153184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872155680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1367,7 +3313,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AA317B-3E6B-43F1-BC2A-EAB957227D0F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1399,6 +3345,78 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FDE7E3-6008-4C6C-B7E4-F57AB43CA65F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF1CD93-8C20-4744-9634-8D64FE165C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1723,45 +3741,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC59"/>
+  <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="K46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="22" width="7.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" customWidth="1"/>
+    <col min="3" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="22" width="7.7109375" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" customWidth="1"/>
     <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" customWidth="1"/>
+    <col min="32" max="32" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="53" t="s">
+      <c r="Z3" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
-    </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="W4" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC4" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1786,8 +3846,24 @@
       <c r="J5" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +3888,28 @@
       <c r="J6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W6" s="60">
+        <v>1</v>
+      </c>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="66">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="60">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>3.0049999999999999</v>
       </c>
@@ -1838,36 +3934,124 @@
       <c r="J7" s="4">
         <v>682.64</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W7" s="60">
+        <v>2</v>
+      </c>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="66">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="66">
+        <v>-60.5</v>
+      </c>
+      <c r="AC7" s="60">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="71">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="71">
+        <v>-60.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W8" s="60">
+        <v>3</v>
+      </c>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="66">
+        <f>Y7+22</f>
+        <v>52</v>
+      </c>
+      <c r="Z8" s="66">
+        <v>7.88</v>
+      </c>
+      <c r="AC8" s="60">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="71">
+        <f>AE7+22</f>
+        <v>52</v>
+      </c>
+      <c r="AF8" s="71">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="56" t="s">
+      <c r="W9" s="60">
+        <v>4</v>
+      </c>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="66">
+        <f>Y8+23</f>
+        <v>75</v>
+      </c>
+      <c r="Z9" s="66">
+        <v>77</v>
+      </c>
+      <c r="AC9" s="60">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="71">
+        <f>AE8+16</f>
+        <v>68</v>
+      </c>
+      <c r="AF9" s="71">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="58"/>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="49"/>
+      <c r="W10" s="60">
+        <v>5</v>
+      </c>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="66">
+        <f>Y9</f>
+        <v>75</v>
+      </c>
+      <c r="Z10" s="66">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="60">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="71">
+        <f>AE9+7</f>
+        <v>75</v>
+      </c>
+      <c r="AF10" s="71">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1922,8 +4106,23 @@
       <c r="T11" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W11" s="68"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AC11" s="70">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="71">
+        <f>AE10</f>
+        <v>75</v>
+      </c>
+      <c r="AF11" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1979,7 +4178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
@@ -2035,7 +4234,7 @@
         <v>682.64</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
@@ -2045,34 +4244,34 @@
       <c r="T15" s="3"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="41" t="s">
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44" t="s">
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
       <c r="M16" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="20" t="s">
         <v>33</v>
       </c>
@@ -2103,18 +4302,18 @@
       <c r="K17" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="59" t="s">
+      <c r="M17" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="20" t="s">
         <v>34</v>
       </c>
@@ -2614,16 +4813,16 @@
       <c r="AC29" s="35"/>
     </row>
     <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="24">
         <f>MAX(I19:I29)</f>
         <v>2.6633875778347567</v>
@@ -2638,16 +4837,16 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="24">
         <f>AVERAGE(I19:I29)</f>
         <v>0.86296801830237346</v>
@@ -2672,30 +4871,30 @@
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="41" t="s">
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44" t="s">
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="46"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
@@ -2728,7 +4927,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="20" t="s">
         <v>36</v>
       </c>
@@ -3190,16 +5389,16 @@
       </c>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="40"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="59"/>
       <c r="I48" s="24">
         <f>MAX(I37:I47)</f>
         <v>1.9375085277664121</v>
@@ -3213,17 +5412,17 @@
         <v>2.6612490095549668</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="40"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
       <c r="I49" s="24">
         <f>AVERAGE(I37:I47)</f>
         <v>0.78217509849497169</v>
@@ -3237,12 +5436,12 @@
         <v>1.1887305935775516</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>1</v>
       </c>
@@ -3250,11 +5449,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
     </row>
-    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>2</v>
       </c>
@@ -3262,7 +5461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>40</v>
       </c>
@@ -3281,7 +5480,7 @@
       <c r="N58" s="12"/>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>41</v>
       </c>
@@ -3295,15 +5494,308 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B63" s="72"/>
+      <c r="C63" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="72"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B64" s="72"/>
+      <c r="C64" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="72"/>
+      <c r="K64" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="L64" s="73"/>
+      <c r="P64" t="s">
+        <v>92</v>
+      </c>
+      <c r="W64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B65" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="72">
+        <v>77</v>
+      </c>
+      <c r="D65" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="72">
+        <v>23</v>
+      </c>
+      <c r="F65" s="72"/>
+      <c r="G65" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65">
+        <f>4-1</f>
+        <v>3</v>
+      </c>
+      <c r="K65" t="s">
+        <v>87</v>
+      </c>
+      <c r="L65" t="s">
+        <v>91</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>-1</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>-1</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B66" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="72">
+        <v>202</v>
+      </c>
+      <c r="D66" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="72">
+        <v>4</v>
+      </c>
+      <c r="F66" s="72"/>
+      <c r="G66" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66">
+        <f>6-H65</f>
+        <v>3</v>
+      </c>
+      <c r="K66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L66" t="s">
+        <v>96</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>-1</v>
+      </c>
+      <c r="U66">
+        <v>-1</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B67" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="72">
+        <v>259</v>
+      </c>
+      <c r="D67" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="72">
+        <v>13</v>
+      </c>
+      <c r="F67" s="72"/>
+      <c r="K67" t="s">
+        <v>89</v>
+      </c>
+      <c r="L67" t="s">
+        <v>97</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>-1</v>
+      </c>
+      <c r="R67">
+        <v>-1</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="72">
+        <v>22</v>
+      </c>
+      <c r="F68" s="72"/>
+      <c r="P68">
+        <v>23</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>22</v>
+      </c>
+      <c r="T68">
+        <v>30</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="72">
+        <v>30</v>
+      </c>
+      <c r="F69" s="72"/>
+      <c r="K69" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="L69" s="73"/>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>4</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>22</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>23</v>
+      </c>
+      <c r="W69">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="72">
+        <v>23</v>
+      </c>
+      <c r="F70" s="72"/>
+      <c r="K70" t="s">
+        <v>87</v>
+      </c>
+      <c r="L70" t="s">
+        <v>93</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>13</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>30</v>
+      </c>
+      <c r="U70">
+        <v>23</v>
+      </c>
+      <c r="W70">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>88</v>
+      </c>
+      <c r="L71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>89</v>
+      </c>
+      <c r="L72" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C10:T10"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
+  <mergeCells count="21">
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="K64:L64"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="F34:H34"/>
@@ -3312,6 +5804,13 @@
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C10:T10"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
